--- a/웹호스팅 파일.xlsx
+++ b/웹호스팅 파일.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dr_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEAC1BC8-798A-4CA8-BCF0-C611B8F1215D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45D8A1B-BD9F-42C4-8398-BD614795AA24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{A69C2BA6-A0CA-4657-AB14-5E18B21B8DA4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="206">
   <si>
     <r>
       <t xml:space="preserve">자사서비스 개발 및 운영 관련 링크 </t>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>닥터909/123456</t>
   </si>
   <si>
     <t>수임93</t>
@@ -702,6 +699,10 @@
       </rPr>
       <t>909!</t>
     </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1563,6 +1564,165 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1572,70 +1732,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1644,58 +1756,118 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,257 +1900,59 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1986,7 +1960,34 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2306,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ED1134-495E-448E-9885-FE3CBE3AFF0A}">
   <dimension ref="A1:AC997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2326,17 +2327,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
@@ -2359,43 +2360,43 @@
       <c r="AC1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41" t="s">
+      <c r="A2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44" t="s">
+      <c r="D2" s="169"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44" t="s">
+      <c r="G2" s="169"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44" t="s">
+      <c r="J2" s="169"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44" t="s">
+      <c r="M2" s="169"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="41" t="s">
+      <c r="P2" s="169"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="41" t="s">
+      <c r="S2" s="169"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="42"/>
-      <c r="W2" s="45"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="60"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -2404,45 +2405,45 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="48" t="s">
+      <c r="D3" s="171"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="48" t="s">
+      <c r="G3" s="171"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="48" t="s">
+      <c r="J3" s="171"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="48" t="s">
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="49" t="s">
+      <c r="P3" s="171"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="46" t="s">
-        <v>203</v>
+      <c r="S3" s="171"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="50" t="s">
+        <v>202</v>
       </c>
-      <c r="V3" s="54"/>
-      <c r="W3" s="47"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="104"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -2451,56 +2452,56 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="161"/>
+      <c r="C4" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="58"/>
+      <c r="J4" s="163"/>
       <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="60"/>
+      <c r="M4" s="165"/>
       <c r="N4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="60"/>
+      <c r="P4" s="165"/>
       <c r="Q4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="62"/>
+      <c r="S4" s="99"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="175" t="s">
+      <c r="U4" s="166" t="s">
+        <v>203</v>
+      </c>
+      <c r="V4" s="167"/>
+      <c r="W4" s="38" t="s">
         <v>204</v>
-      </c>
-      <c r="V4" s="176"/>
-      <c r="W4" s="177" t="s">
-        <v>205</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -2510,58 +2511,58 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="154" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="69"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="158"/>
       <c r="H5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="158"/>
       <c r="K5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="70" t="s">
+      <c r="L5" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="69"/>
+      <c r="M5" s="158"/>
       <c r="N5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="70" t="s">
+      <c r="O5" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="69"/>
+      <c r="P5" s="158"/>
       <c r="Q5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="63" t="s">
+      <c r="U5" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="64"/>
-      <c r="W5" s="173" t="s">
+      <c r="V5" s="130"/>
+      <c r="W5" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="X5" s="174"/>
+      <c r="X5" s="37"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -2569,32 +2570,32 @@
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A6" s="66"/>
+      <c r="A6" s="155"/>
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="71" t="s">
-        <v>202</v>
+      <c r="C6" s="148" t="s">
+        <v>201</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="71" t="s">
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="78"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="40"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -2605,8 +2606,8 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="24.75" thickBot="1">
-      <c r="A7" s="66"/>
+    <row r="7" spans="1:29" ht="17.25" thickBot="1">
+      <c r="A7" s="155"/>
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
@@ -2622,18 +2623,18 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="79" t="s">
+      <c r="O7" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="80"/>
+      <c r="P7" s="153"/>
       <c r="Q7" s="15" t="s">
         <v>30</v>
       </c>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="15"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="64"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="130"/>
       <c r="W7" s="7"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -2642,8 +2643,8 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="24.75" thickBot="1">
-      <c r="A8" s="67"/>
+    <row r="8" spans="1:29" ht="17.25" thickBot="1">
+      <c r="A8" s="156"/>
       <c r="B8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2659,18 +2660,18 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="79" t="s">
+      <c r="O8" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="80"/>
+      <c r="P8" s="153"/>
       <c r="Q8" s="15" t="s">
         <v>30</v>
       </c>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="64"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="130"/>
       <c r="W8" s="7"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -2680,45 +2681,45 @@
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29" ht="66" customHeight="1" thickBot="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="138" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="83" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="83" t="s">
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="83" t="s">
+      <c r="J9" s="141"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="84"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="86" t="s">
+      <c r="M9" s="141"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="89" t="s">
+      <c r="P9" s="144"/>
+      <c r="Q9" s="145"/>
+      <c r="R9" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="84"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="93"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="112"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -2726,41 +2727,41 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="24.75" thickBot="1">
-      <c r="A10" s="82"/>
+    <row r="10" spans="1:29" ht="17.25" thickBot="1">
+      <c r="A10" s="139"/>
       <c r="B10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="143" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="134"/>
+      <c r="E10" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F10" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="94"/>
+      <c r="G10" s="134"/>
       <c r="H10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="I10" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="94"/>
+      <c r="J10" s="134"/>
       <c r="K10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="95" t="s">
+      <c r="L10" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="94"/>
+      <c r="M10" s="134"/>
       <c r="N10" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
-      <c r="O10" s="95"/>
-      <c r="P10" s="94"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="134"/>
       <c r="Q10" s="17">
         <v>123456</v>
       </c>
@@ -2768,13 +2769,13 @@
         <v>33</v>
       </c>
       <c r="S10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="T10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" s="91"/>
-      <c r="V10" s="96"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="135"/>
       <c r="W10" s="7"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -2784,54 +2785,54 @@
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29" ht="24.75" thickBot="1">
-      <c r="A11" s="97" t="s">
-        <v>50</v>
+      <c r="A11" s="113" t="s">
+        <v>49</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="G11" s="51"/>
+      <c r="H11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="19" t="s">
+      <c r="I11" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="137"/>
+      <c r="K11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="102"/>
-      <c r="K11" s="20" t="s">
+      <c r="L11" s="50"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="63" t="s">
+      <c r="P11" s="130"/>
+      <c r="Q11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="R11" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="R11" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="100"/>
+      <c r="S11" s="51"/>
       <c r="T11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="63" t="s">
-        <v>58</v>
+      <c r="U11" s="129" t="s">
+        <v>57</v>
       </c>
-      <c r="V11" s="64"/>
+      <c r="V11" s="130"/>
       <c r="W11" s="22" t="s">
         <v>30</v>
       </c>
@@ -2843,30 +2844,30 @@
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A12" s="98"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="104"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="11"/>
       <c r="F12" s="105"/>
-      <c r="G12" s="104"/>
+      <c r="G12" s="106"/>
       <c r="H12" s="11"/>
       <c r="I12" s="105"/>
-      <c r="J12" s="104"/>
+      <c r="J12" s="106"/>
       <c r="K12" s="11"/>
       <c r="L12" s="105"/>
-      <c r="M12" s="104"/>
+      <c r="M12" s="106"/>
       <c r="N12" s="11"/>
       <c r="O12" s="105"/>
-      <c r="P12" s="104"/>
+      <c r="P12" s="106"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="105"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="107"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="132"/>
       <c r="U12" s="105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
-      <c r="V12" s="104"/>
+      <c r="V12" s="106"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -2876,39 +2877,39 @@
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="1:29" ht="33" customHeight="1" thickBot="1">
-      <c r="A13" s="98"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="D13" s="109"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="53" t="s">
+      <c r="G13" s="109"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="53" t="s">
+      <c r="J13" s="109"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="112"/>
+      <c r="U13" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="108" t="s">
-        <v>64</v>
-      </c>
-      <c r="V13" s="109"/>
-      <c r="W13" s="110"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="125"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
@@ -2917,27 +2918,27 @@
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A14" s="98"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="11"/>
       <c r="I14" s="105"/>
-      <c r="J14" s="104"/>
+      <c r="J14" s="106"/>
       <c r="K14" s="11"/>
       <c r="L14" s="105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="M14" s="104"/>
+      <c r="M14" s="106"/>
       <c r="N14" s="11"/>
       <c r="O14" s="105"/>
-      <c r="P14" s="104"/>
+      <c r="P14" s="106"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="105"/>
-      <c r="S14" s="104"/>
+      <c r="S14" s="106"/>
       <c r="T14" s="11"/>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
@@ -2950,35 +2951,35 @@
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A15" s="99"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="D15" s="109"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="53" t="s">
+      <c r="G15" s="51"/>
+      <c r="H15" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="100"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="100"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="91"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="93"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="112"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="25"/>
@@ -2993,37 +2994,37 @@
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="D16" s="117"/>
+      <c r="E16" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="118" t="s">
+      <c r="F16" s="105"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="121" t="s">
+      <c r="S16" s="108"/>
+      <c r="T16" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="S16" s="122"/>
-      <c r="T16" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="U16" s="3"/>
       <c r="V16" s="24"/>
@@ -3036,24 +3037,24 @@
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A17" s="98"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="119"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="105"/>
-      <c r="G17" s="104"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="11"/>
       <c r="I17" s="105"/>
-      <c r="J17" s="104"/>
+      <c r="J17" s="106"/>
       <c r="K17" s="11"/>
       <c r="L17" s="105"/>
-      <c r="M17" s="104"/>
+      <c r="M17" s="106"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="122"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="108"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
@@ -3069,26 +3070,26 @@
       <c r="AC17" s="3"/>
     </row>
     <row r="18" spans="1:29" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A18" s="99"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="120"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="122"/>
       <c r="F18" s="105"/>
-      <c r="G18" s="104"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="11"/>
       <c r="I18" s="105"/>
-      <c r="J18" s="104"/>
+      <c r="J18" s="106"/>
       <c r="K18" s="11"/>
       <c r="L18" s="105"/>
-      <c r="M18" s="104"/>
+      <c r="M18" s="106"/>
       <c r="N18" s="11"/>
       <c r="O18" s="105"/>
-      <c r="P18" s="104"/>
+      <c r="P18" s="106"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
@@ -3135,44 +3136,44 @@
       <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="1:29" ht="39" thickBot="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="104"/>
+      <c r="C20" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="46" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="100"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="100"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="100"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="6"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S20" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T20" s="25"/>
       <c r="U20" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="V20" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="V20" s="22" t="s">
-        <v>84</v>
-      </c>
       <c r="W20" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
@@ -3182,34 +3183,34 @@
       <c r="AC20" s="3"/>
     </row>
     <row r="21" spans="1:29" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="81"/>
+      <c r="C21" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="105" t="s">
+      <c r="D21" s="106"/>
+      <c r="E21" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="F21" s="105"/>
-      <c r="G21" s="104"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="11"/>
       <c r="I21" s="105"/>
-      <c r="J21" s="104"/>
+      <c r="J21" s="106"/>
       <c r="K21" s="11"/>
       <c r="L21" s="105"/>
-      <c r="M21" s="104"/>
+      <c r="M21" s="106"/>
       <c r="N21" s="11"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S21" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T21" s="23"/>
       <c r="U21" s="3"/>
@@ -3223,29 +3224,29 @@
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="104"/>
+      <c r="C22" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="M22" s="100"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -3264,43 +3265,43 @@
       <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="1:29" ht="39" thickBot="1">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="106"/>
+      <c r="E23" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="105"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="105"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="10" t="s">
+      <c r="S23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="T23" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="S23" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="T23" s="11" t="s">
+      <c r="U23" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="U23" s="22" t="s">
+      <c r="V23" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="V23" s="22" t="s">
-        <v>98</v>
       </c>
       <c r="W23" s="22" t="s">
         <v>30</v>
@@ -3313,16 +3314,16 @@
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="104"/>
+      <c r="C24" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="46" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -3341,7 +3342,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="3"/>
       <c r="V24" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -3352,16 +3353,16 @@
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="104"/>
+      <c r="C25" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="100"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -3380,7 +3381,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="3"/>
       <c r="V25" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -3390,17 +3391,17 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" ht="26.25" thickBot="1">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:29" ht="17.25" thickBot="1">
+      <c r="A26" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="104"/>
+      <c r="C26" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="46" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -3411,15 +3412,15 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="62"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="99"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="6"/>
       <c r="U26" s="3"/>
       <c r="V26" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -3452,7 +3453,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="3"/>
       <c r="V27" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -3463,39 +3464,39 @@
       <c r="AC27" s="3"/>
     </row>
     <row r="28" spans="1:29" ht="82.5" customHeight="1" thickBot="1">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="100"/>
+      <c r="C28" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="125"/>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="126" t="s">
+      <c r="E28" s="102"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="127"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="128" t="s">
+      <c r="I28" s="55"/>
+      <c r="J28" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="129"/>
-      <c r="J28" s="30" t="s">
-        <v>115</v>
-      </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="129"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="78"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="40"/>
       <c r="R28" s="31"/>
       <c r="S28" s="31"/>
       <c r="T28" s="6"/>
       <c r="U28" s="3"/>
       <c r="V28" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -3537,17 +3538,17 @@
       <c r="AC29" s="3"/>
     </row>
     <row r="30" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A30" s="36" t="s">
-        <v>117</v>
+      <c r="A30" s="89" t="s">
+        <v>116</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="38"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
       <c r="L30" s="24"/>
@@ -3570,29 +3571,29 @@
       <c r="AC30" s="3"/>
     </row>
     <row r="31" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A31" s="130" t="s">
-        <v>118</v>
+      <c r="A31" s="92" t="s">
+        <v>117</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="132" t="s">
+      <c r="C31" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="133"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
-      <c r="F31" s="134"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="136"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="137" t="s">
-        <v>119</v>
+      <c r="L31" s="95" t="s">
+        <v>118</v>
       </c>
-      <c r="M31" s="138"/>
+      <c r="M31" s="96"/>
       <c r="N31" s="33"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3610,30 +3611,30 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="26.25" thickBot="1">
-      <c r="A32" s="131"/>
+    <row r="32" spans="1:29" ht="17.25" thickBot="1">
+      <c r="A32" s="93"/>
       <c r="B32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="39"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="100"/>
-      <c r="E32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="137" t="s">
+      <c r="M32" s="96"/>
+      <c r="N32" s="33" t="s">
         <v>121</v>
-      </c>
-      <c r="M32" s="138"/>
-      <c r="N32" s="33" t="s">
-        <v>122</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -3652,30 +3653,30 @@
       <c r="AC32" s="3"/>
     </row>
     <row r="33" spans="1:29" ht="33" customHeight="1" thickBot="1">
-      <c r="A33" s="139" t="s">
+      <c r="A33" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="85"/>
+      <c r="C33" s="50">
+        <v>11111</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="E33" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="140"/>
-      <c r="C33" s="46">
-        <v>11111</v>
-      </c>
-      <c r="D33" s="100"/>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="76" t="s">
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="141" t="s">
-        <v>126</v>
-      </c>
-      <c r="M33" s="142"/>
-      <c r="N33" s="143"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="88"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -3693,22 +3694,22 @@
       <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A34" s="121" t="s">
+      <c r="A34" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="81"/>
+      <c r="C34" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="46" t="s">
-        <v>128</v>
+      <c r="D34" s="51"/>
+      <c r="E34" s="6" t="s">
+        <v>72</v>
       </c>
-      <c r="D34" s="100"/>
-      <c r="E34" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="78"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="40"/>
       <c r="K34" s="6"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
@@ -3730,24 +3731,24 @@
       <c r="AC34" s="3"/>
     </row>
     <row r="35" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A35" s="121" t="s">
-        <v>118</v>
+      <c r="A35" s="80" t="s">
+        <v>117</v>
       </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="46" t="s">
+      <c r="B35" s="81"/>
+      <c r="C35" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="100"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
-      <c r="F35" s="144" t="s">
-        <v>129</v>
+      <c r="F35" s="71" t="s">
+        <v>128</v>
       </c>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="146"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="73"/>
       <c r="K35" s="6"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
@@ -3769,22 +3770,22 @@
       <c r="AC35" s="3"/>
     </row>
     <row r="36" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A36" s="121" t="s">
-        <v>130</v>
+      <c r="A36" s="80" t="s">
+        <v>129</v>
       </c>
-      <c r="B36" s="123"/>
-      <c r="C36" s="46" t="s">
-        <v>51</v>
+      <c r="B36" s="81"/>
+      <c r="C36" s="50" t="s">
+        <v>50</v>
       </c>
-      <c r="D36" s="100"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
-      <c r="F36" s="76"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="78"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="40"/>
       <c r="K36" s="6"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -3805,25 +3806,25 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="26.25" thickBot="1">
-      <c r="A37" s="121" t="s">
+    <row r="37" spans="1:29" ht="17.25" thickBot="1">
+      <c r="A37" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="81"/>
+      <c r="C37" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="123"/>
-      <c r="C37" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="100"/>
-      <c r="E37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="144" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="146"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="73"/>
       <c r="K37" s="6"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -3845,24 +3846,24 @@
       <c r="AC37" s="3"/>
     </row>
     <row r="38" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A38" s="147" t="s">
+      <c r="A38" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="83"/>
+      <c r="C38" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="148"/>
-      <c r="C38" s="46" t="s">
+      <c r="D38" s="51"/>
+      <c r="E38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="100"/>
-      <c r="E38" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="144" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="146"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="73"/>
       <c r="K38" s="6"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -3884,20 +3885,20 @@
       <c r="AC38" s="3"/>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A39" s="139"/>
-      <c r="B39" s="140"/>
-      <c r="C39" s="46" t="s">
-        <v>136</v>
+      <c r="A39" s="84"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="50" t="s">
+        <v>135</v>
       </c>
-      <c r="D39" s="100"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
-      <c r="F39" s="76"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="78"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="6"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -3919,24 +3920,24 @@
       <c r="AC39" s="3"/>
     </row>
     <row r="40" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A40" s="121" t="s">
+      <c r="A40" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="81"/>
+      <c r="C40" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="123"/>
-      <c r="C40" s="46" t="s">
+      <c r="D40" s="51"/>
+      <c r="E40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="100"/>
-      <c r="E40" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="149" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="151"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="78"/>
       <c r="K40" s="6"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -3958,24 +3959,24 @@
       <c r="AC40" s="3"/>
     </row>
     <row r="41" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A41" s="121" t="s">
+      <c r="A41" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="81"/>
+      <c r="C41" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="51"/>
+      <c r="E41" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="123"/>
-      <c r="C41" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="100"/>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="144" t="s">
-        <v>142</v>
-      </c>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="146"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="73"/>
       <c r="K41" s="6"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -3997,24 +3998,24 @@
       <c r="AC41" s="3"/>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A42" s="121" t="s">
+      <c r="A42" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="81"/>
+      <c r="C42" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="51"/>
+      <c r="E42" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="123"/>
-      <c r="C42" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="100"/>
-      <c r="E42" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="144" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="146"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="73"/>
       <c r="K42" s="6"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -4036,24 +4037,24 @@
       <c r="AC42" s="3"/>
     </row>
     <row r="43" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="81"/>
+      <c r="C43" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="51"/>
+      <c r="E43" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="100"/>
-      <c r="E43" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="144" t="s">
+      <c r="F43" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="145"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145"/>
-      <c r="J43" s="146"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="73"/>
       <c r="K43" s="6"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -4074,25 +4075,25 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
     </row>
-    <row r="44" spans="1:29" ht="24.75" thickBot="1">
-      <c r="A44" s="121" t="s">
+    <row r="44" spans="1:29" ht="17.25" thickBot="1">
+      <c r="A44" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="81"/>
+      <c r="C44" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="51"/>
+      <c r="E44" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="123"/>
-      <c r="C44" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="100"/>
-      <c r="E44" s="19" t="s">
+      <c r="F44" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="F44" s="149" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="151"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="78"/>
       <c r="K44" s="6"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -4113,25 +4114,25 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="1:29" ht="26.25" thickBot="1">
-      <c r="A45" s="121" t="s">
+    <row r="45" spans="1:29" ht="17.25" thickBot="1">
+      <c r="A45" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="81"/>
+      <c r="C45" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="123"/>
-      <c r="C45" s="46" t="s">
+      <c r="D45" s="51"/>
+      <c r="E45" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="100"/>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="149" t="s">
-        <v>153</v>
-      </c>
-      <c r="G45" s="150"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="150"/>
-      <c r="J45" s="151"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="78"/>
       <c r="K45" s="6"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -4153,24 +4154,24 @@
       <c r="AC45" s="3"/>
     </row>
     <row r="46" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A46" s="121" t="s">
+      <c r="A46" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="81"/>
+      <c r="C46" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="123"/>
-      <c r="C46" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="100"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="6">
         <v>7654321</v>
       </c>
-      <c r="F46" s="144" t="s">
-        <v>156</v>
+      <c r="F46" s="71" t="s">
+        <v>155</v>
       </c>
-      <c r="G46" s="145"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
-      <c r="J46" s="146"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="73"/>
       <c r="K46" s="6"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -4192,24 +4193,24 @@
       <c r="AC46" s="3"/>
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A47" s="152" t="s">
+      <c r="A47" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="153"/>
-      <c r="C47" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="100"/>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="144" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="146"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="73"/>
       <c r="K47" s="6"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -4231,24 +4232,24 @@
       <c r="AC47" s="3"/>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A48" s="152" t="s">
+      <c r="A48" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="49"/>
+      <c r="C48" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="153"/>
-      <c r="C48" s="46" t="s">
+      <c r="D48" s="51"/>
+      <c r="E48" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="100"/>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="F48" s="149" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="151"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="78"/>
       <c r="K48" s="6"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -4270,24 +4271,24 @@
       <c r="AC48" s="3"/>
     </row>
     <row r="49" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A49" s="152" t="s">
+      <c r="A49" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50">
+        <v>431806838217787</v>
+      </c>
+      <c r="D49" s="51"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="153"/>
-      <c r="C49" s="46">
-        <v>431806838217787</v>
-      </c>
-      <c r="D49" s="100"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="46" t="s">
+      <c r="G49" s="51"/>
+      <c r="H49" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="G49" s="100"/>
-      <c r="H49" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="I49" s="77"/>
-      <c r="J49" s="78"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="40"/>
       <c r="K49" s="6"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -4309,24 +4310,24 @@
       <c r="AC49" s="3"/>
     </row>
     <row r="50" spans="1:29" ht="33" customHeight="1" thickBot="1">
-      <c r="A50" s="152" t="s">
+      <c r="A50" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="51"/>
+      <c r="E50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="153"/>
-      <c r="C50" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="100"/>
-      <c r="E50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="149" t="s">
-        <v>168</v>
-      </c>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="151"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="78"/>
       <c r="K50" s="6"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -4348,24 +4349,24 @@
       <c r="AC50" s="3"/>
     </row>
     <row r="51" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A51" s="152" t="s">
+      <c r="A51" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="51"/>
+      <c r="E51" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="153"/>
-      <c r="C51" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="100"/>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="F51" s="144" t="s">
-        <v>171</v>
-      </c>
-      <c r="G51" s="145"/>
-      <c r="H51" s="145"/>
-      <c r="I51" s="145"/>
-      <c r="J51" s="146"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="73"/>
       <c r="K51" s="6"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -4386,25 +4387,25 @@
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
     </row>
-    <row r="52" spans="1:29" ht="26.25" thickBot="1">
-      <c r="A52" s="152" t="s">
+    <row r="52" spans="1:29" ht="17.25" thickBot="1">
+      <c r="A52" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="51"/>
+      <c r="E52" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="153"/>
-      <c r="C52" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="100"/>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="F52" s="144" t="s">
-        <v>174</v>
-      </c>
-      <c r="G52" s="145"/>
-      <c r="H52" s="145"/>
-      <c r="I52" s="145"/>
-      <c r="J52" s="146"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="73"/>
       <c r="K52" s="6"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -4426,22 +4427,22 @@
       <c r="AC52" s="3"/>
     </row>
     <row r="53" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A53" s="152" t="s">
+      <c r="A53" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="153"/>
-      <c r="C53" s="46" t="s">
+      <c r="D53" s="51"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="D53" s="100"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="144" t="s">
-        <v>177</v>
-      </c>
-      <c r="G53" s="145"/>
-      <c r="H53" s="145"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="146"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="73"/>
       <c r="K53" s="6"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -4463,24 +4464,24 @@
       <c r="AC53" s="3"/>
     </row>
     <row r="54" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A54" s="152" t="s">
+      <c r="A54" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="49"/>
+      <c r="C54" s="18" t="s">
         <v>178</v>
-      </c>
-      <c r="B54" s="153"/>
-      <c r="C54" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="D54" s="18">
         <v>1083875201</v>
       </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="144" t="s">
-        <v>180</v>
+      <c r="F54" s="71" t="s">
+        <v>179</v>
       </c>
-      <c r="G54" s="145"/>
-      <c r="H54" s="145"/>
-      <c r="I54" s="145"/>
-      <c r="J54" s="146"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="73"/>
       <c r="K54" s="6"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4502,24 +4503,24 @@
       <c r="AC54" s="3"/>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A55" s="154" t="s">
+      <c r="A55" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="75"/>
+      <c r="C55" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="51"/>
+      <c r="E55" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B55" s="155"/>
-      <c r="C55" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="100"/>
-      <c r="E55" s="6" t="s">
+      <c r="F55" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="F55" s="144" t="s">
-        <v>183</v>
-      </c>
-      <c r="G55" s="145"/>
-      <c r="H55" s="145"/>
-      <c r="I55" s="145"/>
-      <c r="J55" s="146"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="73"/>
       <c r="K55" s="6"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -4541,24 +4542,24 @@
       <c r="AC55" s="3"/>
     </row>
     <row r="56" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A56" s="152" t="s">
+      <c r="A56" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="49"/>
+      <c r="C56" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="51"/>
+      <c r="E56" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="153"/>
-      <c r="C56" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="100"/>
-      <c r="E56" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F56" s="144" t="s">
-        <v>185</v>
-      </c>
-      <c r="G56" s="145"/>
-      <c r="H56" s="145"/>
-      <c r="I56" s="145"/>
-      <c r="J56" s="146"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="73"/>
       <c r="K56" s="6"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -4580,24 +4581,24 @@
       <c r="AC56" s="3"/>
     </row>
     <row r="57" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A57" s="152" t="s">
+      <c r="A57" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="49"/>
+      <c r="C57" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="51"/>
+      <c r="E57" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="B57" s="153"/>
-      <c r="C57" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="100"/>
-      <c r="E57" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" s="144" t="s">
-        <v>187</v>
-      </c>
-      <c r="G57" s="145"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="145"/>
-      <c r="J57" s="146"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="73"/>
       <c r="K57" s="6"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -4619,24 +4620,24 @@
       <c r="AC57" s="3"/>
     </row>
     <row r="58" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A58" s="152" t="s">
+      <c r="A58" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="49"/>
+      <c r="C58" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="153"/>
-      <c r="C58" s="46" t="s">
+      <c r="D58" s="51"/>
+      <c r="E58" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="100"/>
-      <c r="E58" s="6" t="s">
+      <c r="F58" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="F58" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="G58" s="145"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="145"/>
-      <c r="J58" s="146"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="73"/>
       <c r="K58" s="6"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -4658,16 +4659,16 @@
       <c r="AC58" s="3"/>
     </row>
     <row r="59" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A59" s="152" t="s">
-        <v>192</v>
+      <c r="A59" s="48" t="s">
+        <v>191</v>
       </c>
-      <c r="B59" s="153"/>
-      <c r="C59" s="46" t="s">
-        <v>189</v>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50" t="s">
+        <v>188</v>
       </c>
-      <c r="D59" s="100"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
@@ -4695,24 +4696,24 @@
       <c r="AC59" s="3"/>
     </row>
     <row r="60" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A60" s="156" t="s">
+      <c r="A60" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="53"/>
+      <c r="C60" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="55"/>
+      <c r="E60" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="157"/>
-      <c r="C60" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="129"/>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="F60" s="158" t="s">
-        <v>195</v>
-      </c>
-      <c r="G60" s="159"/>
-      <c r="H60" s="159"/>
-      <c r="I60" s="159"/>
-      <c r="J60" s="160"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="58"/>
       <c r="K60" s="6"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -4737,7 +4738,7 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="6"/>
@@ -4798,23 +4799,23 @@
       <c r="AC62" s="3"/>
     </row>
     <row r="63" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="60"/>
+      <c r="C63" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="62"/>
+      <c r="E63" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="162" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="133"/>
-      <c r="E63" s="19" t="s">
+      <c r="F63" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="F63" s="163" t="s">
-        <v>199</v>
-      </c>
-      <c r="G63" s="164"/>
-      <c r="H63" s="164"/>
-      <c r="I63" s="165"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="65"/>
       <c r="J63" s="3"/>
       <c r="K63" s="6"/>
       <c r="L63" s="3"/>
@@ -4837,21 +4838,21 @@
       <c r="AC63" s="3"/>
     </row>
     <row r="64" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A64" s="161" t="s">
-        <v>200</v>
+      <c r="A64" s="69" t="s">
+        <v>199</v>
       </c>
-      <c r="B64" s="169"/>
-      <c r="C64" s="46" t="s">
+      <c r="B64" s="70"/>
+      <c r="C64" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="100"/>
+      <c r="D64" s="51"/>
       <c r="E64" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
-      <c r="F64" s="166"/>
-      <c r="G64" s="167"/>
-      <c r="H64" s="167"/>
-      <c r="I64" s="168"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="68"/>
       <c r="J64" s="3"/>
       <c r="K64" s="6"/>
       <c r="L64" s="3"/>
@@ -4874,15 +4875,15 @@
       <c r="AC64" s="3"/>
     </row>
     <row r="65" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A65" s="76"/>
-      <c r="B65" s="78"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="134"/>
-      <c r="G65" s="135"/>
-      <c r="H65" s="135"/>
-      <c r="I65" s="136"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="47"/>
       <c r="J65" s="3"/>
       <c r="K65" s="6"/>
       <c r="L65" s="3"/>
@@ -4905,15 +4906,15 @@
       <c r="AC65" s="3"/>
     </row>
     <row r="66" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A66" s="76"/>
-      <c r="B66" s="78"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="78"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="40"/>
       <c r="J66" s="3"/>
       <c r="K66" s="6"/>
       <c r="L66" s="3"/>
@@ -4936,15 +4937,15 @@
       <c r="AC66" s="3"/>
     </row>
     <row r="67" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A67" s="76"/>
-      <c r="B67" s="78"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="78"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="40"/>
       <c r="J67" s="3"/>
       <c r="K67" s="6"/>
       <c r="L67" s="3"/>
@@ -4967,15 +4968,15 @@
       <c r="AC67" s="3"/>
     </row>
     <row r="68" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A68" s="76"/>
-      <c r="B68" s="78"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="78"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="40"/>
       <c r="J68" s="3"/>
       <c r="K68" s="6"/>
       <c r="L68" s="3"/>
@@ -4998,15 +4999,15 @@
       <c r="AC68" s="3"/>
     </row>
     <row r="69" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A69" s="76"/>
-      <c r="B69" s="78"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="40"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="78"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="40"/>
       <c r="J69" s="3"/>
       <c r="K69" s="6"/>
       <c r="L69" s="3"/>
@@ -5029,15 +5030,15 @@
       <c r="AC69" s="3"/>
     </row>
     <row r="70" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A70" s="170"/>
-      <c r="B70" s="171"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="170"/>
-      <c r="G70" s="172"/>
-      <c r="H70" s="172"/>
-      <c r="I70" s="171"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="43"/>
       <c r="J70" s="3"/>
       <c r="K70" s="6"/>
       <c r="L70" s="3"/>
@@ -33798,126 +33799,114 @@
     </row>
   </sheetData>
   <mergeCells count="244">
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="F23:G23"/>
@@ -33934,114 +33923,126 @@
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="F67:I67"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>

--- a/웹호스팅 파일.xlsx
+++ b/웹호스팅 파일.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dr_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45D8A1B-BD9F-42C4-8398-BD614795AA24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE34057-4287-4E9D-854B-58042CB4DC39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{A69C2BA6-A0CA-4657-AB14-5E18B21B8DA4}"/>
   </bookViews>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>수임93</t>
-  </si>
-  <si>
-    <t>ekrxj909</t>
   </si>
   <si>
     <t>CMS관리자</t>
@@ -703,6 +700,10 @@
   </si>
   <si>
     <t>admin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ekrxj909</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1573,156 +1574,6 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1732,22 +1583,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1756,92 +1652,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1849,25 +1664,49 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1900,95 +1739,257 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2307,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ED1134-495E-448E-9885-FE3CBE3AFF0A}">
   <dimension ref="A1:AC997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2327,17 +2328,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
@@ -2360,43 +2361,43 @@
       <c r="AC1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="59" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="169"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="168" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="169"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="168" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="169"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="168" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="169"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="168" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="59" t="s">
+      <c r="P2" s="45"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="169"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="59" t="s">
+      <c r="S2" s="45"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="169"/>
-      <c r="W2" s="60"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="48"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -2405,45 +2406,45 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="170" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="171"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="173" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173" t="s">
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="171"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="173" t="s">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="171"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="173" t="s">
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="170" t="s">
+      <c r="P3" s="52"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="171"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="50" t="s">
-        <v>202</v>
+      <c r="S3" s="52"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="49" t="s">
+        <v>201</v>
       </c>
-      <c r="V3" s="109"/>
-      <c r="W3" s="104"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="50"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -2452,56 +2453,56 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="162" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="163"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="162" t="s">
+      <c r="F4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="163"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="162" t="s">
+      <c r="I4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="163"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="164" t="s">
+      <c r="L4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="165"/>
+      <c r="M4" s="62"/>
       <c r="N4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="164" t="s">
+      <c r="O4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="165"/>
+      <c r="P4" s="62"/>
       <c r="Q4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="98" t="s">
+      <c r="R4" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="99"/>
+      <c r="S4" s="64"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="166" t="s">
+      <c r="U4" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="V4" s="66"/>
+      <c r="W4" s="38" t="s">
         <v>203</v>
-      </c>
-      <c r="V4" s="167"/>
-      <c r="W4" s="38" t="s">
-        <v>204</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -2511,54 +2512,54 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="78" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="158"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="159" t="s">
+      <c r="F5" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="158"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="159" t="s">
+      <c r="I5" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="158"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="159" t="s">
+      <c r="L5" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="158"/>
+      <c r="M5" s="82"/>
       <c r="N5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="159" t="s">
+      <c r="O5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="158"/>
+      <c r="P5" s="82"/>
       <c r="Q5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="129" t="s">
+      <c r="U5" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="130"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="36" t="s">
         <v>27</v>
       </c>
@@ -2570,32 +2571,32 @@
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A6" s="155"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="148" t="s">
-        <v>201</v>
+      <c r="C6" s="69" t="s">
+        <v>200</v>
       </c>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="148" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="40"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="75"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -2607,7 +2608,7 @@
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A7" s="155"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
@@ -2623,18 +2624,18 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="152" t="s">
+      <c r="O7" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="153"/>
+      <c r="P7" s="77"/>
       <c r="Q7" s="15" t="s">
         <v>30</v>
       </c>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="15"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="130"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="68"/>
       <c r="W7" s="7"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -2644,7 +2645,7 @@
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A8" s="156"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2660,18 +2661,18 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="152" t="s">
+      <c r="O8" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="153"/>
+      <c r="P8" s="77"/>
       <c r="Q8" s="15" t="s">
         <v>30</v>
       </c>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="129"/>
-      <c r="V8" s="130"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="68"/>
       <c r="W8" s="7"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -2681,45 +2682,45 @@
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29" ht="66" customHeight="1" thickBot="1">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="84" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="140" t="s">
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="140" t="s">
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="141"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="140" t="s">
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="141"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="143" t="s">
+      <c r="M9" s="87"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="146" t="s">
+      <c r="P9" s="90"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="141"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="112"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="96"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -2728,40 +2729,40 @@
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A10" s="139"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="143" t="s">
-        <v>205</v>
+      <c r="C10" s="89" t="s">
+        <v>204</v>
       </c>
-      <c r="D10" s="134"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="17">
         <v>123456</v>
       </c>
-      <c r="F10" s="133" t="s">
+      <c r="F10" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="134"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="133" t="s">
+      <c r="I10" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="134"/>
+      <c r="J10" s="97"/>
       <c r="K10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="133" t="s">
+      <c r="L10" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="134"/>
+      <c r="M10" s="97"/>
       <c r="N10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="133"/>
-      <c r="P10" s="134"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="97"/>
       <c r="Q10" s="17">
         <v>123456</v>
       </c>
@@ -2769,13 +2770,13 @@
         <v>33</v>
       </c>
       <c r="S10" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="T10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="T10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="U10" s="110"/>
-      <c r="V10" s="135"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="7"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -2785,54 +2786,54 @@
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29" ht="24.75" thickBot="1">
-      <c r="A11" s="113" t="s">
-        <v>49</v>
+      <c r="A11" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="104"/>
+      <c r="E11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="G11" s="104"/>
+      <c r="H11" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="19" t="s">
+      <c r="I11" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="106"/>
+      <c r="K11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="136" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="137"/>
-      <c r="K11" s="20" t="s">
+      <c r="L11" s="49"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="129" t="s">
+      <c r="P11" s="68"/>
+      <c r="Q11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="R11" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="51"/>
+      <c r="S11" s="104"/>
       <c r="T11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="129" t="s">
-        <v>57</v>
+      <c r="U11" s="67" t="s">
+        <v>56</v>
       </c>
-      <c r="V11" s="130"/>
+      <c r="V11" s="68"/>
       <c r="W11" s="22" t="s">
         <v>30</v>
       </c>
@@ -2844,30 +2845,30 @@
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A12" s="114"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="10"/>
       <c r="C12" s="107"/>
-      <c r="D12" s="106"/>
+      <c r="D12" s="108"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="108"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="106"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="108"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="106"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="108"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="106"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="108"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="105"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="105" t="s">
-        <v>58</v>
+      <c r="R12" s="109"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="109" t="s">
+        <v>57</v>
       </c>
-      <c r="V12" s="106"/>
+      <c r="V12" s="108"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -2877,39 +2878,39 @@
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="1:29" ht="33" customHeight="1" thickBot="1">
-      <c r="A13" s="114"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="97" t="s">
+      <c r="G13" s="56"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="109"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="97" t="s">
+      <c r="J13" s="56"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="109"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="123" t="s">
-        <v>63</v>
-      </c>
-      <c r="V13" s="124"/>
-      <c r="W13" s="125"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="114"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
@@ -2918,27 +2919,27 @@
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A14" s="114"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
       <c r="F14" s="107"/>
-      <c r="G14" s="106"/>
+      <c r="G14" s="108"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="108"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="105" t="s">
-        <v>64</v>
+      <c r="L14" s="109" t="s">
+        <v>63</v>
       </c>
-      <c r="M14" s="106"/>
+      <c r="M14" s="108"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="106"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="108"/>
       <c r="Q14" s="23"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="106"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="108"/>
       <c r="T14" s="11"/>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
@@ -2951,35 +2952,35 @@
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A15" s="115"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="D15" s="56"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="97" t="s">
+      <c r="G15" s="104"/>
+      <c r="H15" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="104"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="51"/>
+      <c r="M15" s="104"/>
       <c r="N15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="110"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="112"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="96"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="25"/>
@@ -2994,37 +2995,37 @@
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="D16" s="121"/>
+      <c r="E16" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="120" t="s">
+      <c r="F16" s="109"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="80" t="s">
+      <c r="S16" s="119"/>
+      <c r="T16" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="S16" s="108"/>
-      <c r="T16" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="U16" s="3"/>
       <c r="V16" s="24"/>
@@ -3037,24 +3038,24 @@
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A17" s="114"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="106"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="108"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="106"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="108"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="106"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="108"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="108"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="119"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
@@ -3070,26 +3071,26 @@
       <c r="AC17" s="3"/>
     </row>
     <row r="18" spans="1:29" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A18" s="115"/>
+      <c r="A18" s="102"/>
       <c r="B18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="106"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="106"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="108"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="106"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="108"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="106"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="108"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="106"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="108"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
@@ -3136,44 +3137,44 @@
       <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="1:29" ht="39" thickBot="1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="50" t="s">
+      <c r="D20" s="104"/>
+      <c r="E20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="104"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="104"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="104"/>
       <c r="N20" s="6"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S20" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T20" s="25"/>
       <c r="U20" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="V20" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="V20" s="22" t="s">
-        <v>83</v>
-      </c>
       <c r="W20" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
@@ -3183,34 +3184,34 @@
       <c r="AC20" s="3"/>
     </row>
     <row r="21" spans="1:29" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="127"/>
+      <c r="C21" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="105" t="s">
+      <c r="D21" s="108"/>
+      <c r="E21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="106"/>
-      <c r="E21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="105"/>
-      <c r="G21" s="106"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="108"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="106"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="108"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="106"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="108"/>
       <c r="N21" s="11"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S21" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T21" s="23"/>
       <c r="U21" s="3"/>
@@ -3224,29 +3225,29 @@
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="104"/>
+      <c r="E22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="49"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" s="51"/>
+      <c r="M22" s="104"/>
       <c r="N22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -3265,43 +3266,43 @@
       <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="1:29" ht="39" thickBot="1">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="127"/>
+      <c r="C23" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="108"/>
+      <c r="E23" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="106"/>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="109"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="109"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="105"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="10" t="s">
+      <c r="S23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T23" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="S23" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="T23" s="11" t="s">
+      <c r="U23" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="U23" s="22" t="s">
+      <c r="V23" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="V23" s="22" t="s">
-        <v>97</v>
       </c>
       <c r="W23" s="22" t="s">
         <v>30</v>
@@ -3314,16 +3315,16 @@
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="50" t="s">
+      <c r="D24" s="104"/>
+      <c r="E24" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -3342,7 +3343,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="3"/>
       <c r="V24" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -3353,16 +3354,16 @@
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="51"/>
+      <c r="D25" s="104"/>
       <c r="E25" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -3381,7 +3382,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="3"/>
       <c r="V25" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -3392,16 +3393,16 @@
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="50" t="s">
+      <c r="D26" s="104"/>
+      <c r="E26" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -3412,15 +3413,15 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="99"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="64"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="6"/>
       <c r="U26" s="3"/>
       <c r="V26" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -3453,7 +3454,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="3"/>
       <c r="V27" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -3464,39 +3465,39 @@
       <c r="AC27" s="3"/>
     </row>
     <row r="28" spans="1:29" ht="82.5" customHeight="1" thickBot="1">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="128" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="129"/>
+      <c r="C28" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="E28" s="131"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="103" t="s">
+      <c r="I28" s="133"/>
+      <c r="J28" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="I28" s="55"/>
-      <c r="J28" s="30" t="s">
-        <v>114</v>
-      </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="55"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="133"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="40"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="75"/>
       <c r="R28" s="31"/>
       <c r="S28" s="31"/>
       <c r="T28" s="6"/>
       <c r="U28" s="3"/>
       <c r="V28" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -3538,17 +3539,17 @@
       <c r="AC29" s="3"/>
     </row>
     <row r="30" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A30" s="89" t="s">
-        <v>116</v>
+      <c r="A30" s="39" t="s">
+        <v>115</v>
       </c>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
       <c r="L30" s="24"/>
@@ -3571,29 +3572,29 @@
       <c r="AC30" s="3"/>
     </row>
     <row r="31" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A31" s="92" t="s">
-        <v>117</v>
+      <c r="A31" s="137" t="s">
+        <v>116</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="62"/>
+      <c r="D31" s="140"/>
       <c r="E31" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="143"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="95" t="s">
-        <v>118</v>
+      <c r="L31" s="144" t="s">
+        <v>117</v>
       </c>
-      <c r="M31" s="96"/>
+      <c r="M31" s="145"/>
       <c r="N31" s="33"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3612,29 +3613,29 @@
       <c r="AC31" s="3"/>
     </row>
     <row r="32" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A32" s="93"/>
+      <c r="A32" s="138"/>
       <c r="B32" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="104"/>
+      <c r="E32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="73"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="95" t="s">
+      <c r="M32" s="145"/>
+      <c r="N32" s="33" t="s">
         <v>120</v>
-      </c>
-      <c r="M32" s="96"/>
-      <c r="N32" s="33" t="s">
-        <v>121</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -3653,30 +3654,30 @@
       <c r="AC32" s="3"/>
     </row>
     <row r="33" spans="1:29" ht="33" customHeight="1" thickBot="1">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="150"/>
+      <c r="C33" s="49">
+        <v>11111</v>
+      </c>
+      <c r="D33" s="104"/>
+      <c r="E33" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="50">
-        <v>11111</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M33" s="87"/>
-      <c r="N33" s="88"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="136"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -3694,22 +3695,22 @@
       <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="127"/>
+      <c r="C34" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="50" t="s">
-        <v>127</v>
+      <c r="D34" s="104"/>
+      <c r="E34" s="6" t="s">
+        <v>71</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="40"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="75"/>
       <c r="K34" s="6"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
@@ -3731,24 +3732,24 @@
       <c r="AC34" s="3"/>
     </row>
     <row r="35" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A35" s="80" t="s">
-        <v>117</v>
+      <c r="A35" s="118" t="s">
+        <v>116</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="50" t="s">
+      <c r="B35" s="127"/>
+      <c r="C35" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="51"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
-      <c r="F35" s="71" t="s">
-        <v>128</v>
+      <c r="F35" s="146" t="s">
+        <v>127</v>
       </c>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="73"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="148"/>
       <c r="K35" s="6"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
@@ -3770,22 +3771,22 @@
       <c r="AC35" s="3"/>
     </row>
     <row r="36" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A36" s="80" t="s">
-        <v>129</v>
+      <c r="A36" s="118" t="s">
+        <v>128</v>
       </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="50" t="s">
-        <v>50</v>
+      <c r="B36" s="127"/>
+      <c r="C36" s="49" t="s">
+        <v>49</v>
       </c>
-      <c r="D36" s="51"/>
+      <c r="D36" s="104"/>
       <c r="E36" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="40"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="75"/>
       <c r="K36" s="6"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -3807,24 +3808,24 @@
       <c r="AC36" s="3"/>
     </row>
     <row r="37" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="127"/>
+      <c r="C37" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="104"/>
+      <c r="E37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="73"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="148"/>
       <c r="K37" s="6"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -3846,24 +3847,24 @@
       <c r="AC37" s="3"/>
     </row>
     <row r="38" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="155"/>
+      <c r="C38" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="50" t="s">
+      <c r="D38" s="104"/>
+      <c r="E38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="73"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="148"/>
       <c r="K38" s="6"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -3885,20 +3886,20 @@
       <c r="AC38" s="3"/>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A39" s="84"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="50" t="s">
-        <v>135</v>
+      <c r="A39" s="149"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="49" t="s">
+        <v>134</v>
       </c>
-      <c r="D39" s="51"/>
+      <c r="D39" s="104"/>
       <c r="E39" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="40"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="75"/>
       <c r="K39" s="6"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -3920,24 +3921,24 @@
       <c r="AC39" s="3"/>
     </row>
     <row r="40" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="118" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="127"/>
+      <c r="C40" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="50" t="s">
+      <c r="D40" s="104"/>
+      <c r="E40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="78"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="153"/>
       <c r="K40" s="6"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -3959,24 +3960,24 @@
       <c r="AC40" s="3"/>
     </row>
     <row r="41" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="127"/>
+      <c r="C41" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="104"/>
+      <c r="E41" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="73"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="148"/>
       <c r="K41" s="6"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -3998,24 +3999,24 @@
       <c r="AC41" s="3"/>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A42" s="80" t="s">
+      <c r="A42" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="127"/>
+      <c r="C42" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="104"/>
+      <c r="E42" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="146" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="73"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="148"/>
       <c r="K42" s="6"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -4037,24 +4038,24 @@
       <c r="AC42" s="3"/>
     </row>
     <row r="43" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="127"/>
+      <c r="C43" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="104"/>
+      <c r="E43" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="73"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="148"/>
       <c r="K43" s="6"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -4076,24 +4077,24 @@
       <c r="AC43" s="3"/>
     </row>
     <row r="44" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="118" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="127"/>
+      <c r="C44" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="104"/>
+      <c r="E44" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="19" t="s">
+      <c r="F44" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="F44" s="76" t="s">
-        <v>148</v>
-      </c>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="78"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="153"/>
       <c r="K44" s="6"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -4115,24 +4116,24 @@
       <c r="AC44" s="3"/>
     </row>
     <row r="45" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="127"/>
+      <c r="C45" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="50" t="s">
+      <c r="D45" s="104"/>
+      <c r="E45" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="151" t="s">
         <v>151</v>
       </c>
-      <c r="F45" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="78"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="153"/>
       <c r="K45" s="6"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -4154,24 +4155,24 @@
       <c r="AC45" s="3"/>
     </row>
     <row r="46" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="118" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="127"/>
+      <c r="C46" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="51"/>
+      <c r="D46" s="104"/>
       <c r="E46" s="6">
         <v>7654321</v>
       </c>
-      <c r="F46" s="71" t="s">
-        <v>155</v>
+      <c r="F46" s="146" t="s">
+        <v>154</v>
       </c>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="73"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="148"/>
       <c r="K46" s="6"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -4193,24 +4194,24 @@
       <c r="AC46" s="3"/>
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="157"/>
+      <c r="C47" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="104"/>
+      <c r="E47" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="146" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="73"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="148"/>
       <c r="K47" s="6"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -4232,24 +4233,24 @@
       <c r="AC47" s="3"/>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="157"/>
+      <c r="C48" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="50" t="s">
+      <c r="D48" s="104"/>
+      <c r="E48" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="F48" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="78"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="153"/>
       <c r="K48" s="6"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -4271,24 +4272,24 @@
       <c r="AC48" s="3"/>
     </row>
     <row r="49" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="157"/>
+      <c r="C49" s="49">
+        <v>431806838217787</v>
+      </c>
+      <c r="D49" s="104"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="50">
-        <v>431806838217787</v>
-      </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="50" t="s">
+      <c r="G49" s="104"/>
+      <c r="H49" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="40"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="75"/>
       <c r="K49" s="6"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -4310,24 +4311,24 @@
       <c r="AC49" s="3"/>
     </row>
     <row r="50" spans="1:29" ht="33" customHeight="1" thickBot="1">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="156" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="157"/>
+      <c r="C50" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="104"/>
+      <c r="E50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="151" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="78"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="153"/>
       <c r="K50" s="6"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -4349,24 +4350,24 @@
       <c r="AC50" s="3"/>
     </row>
     <row r="51" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="156" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="157"/>
+      <c r="C51" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="104"/>
+      <c r="E51" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="F51" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="73"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="148"/>
       <c r="K51" s="6"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -4388,24 +4389,24 @@
       <c r="AC51" s="3"/>
     </row>
     <row r="52" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="157"/>
+      <c r="C52" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="104"/>
+      <c r="E52" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="146" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="73"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="148"/>
       <c r="K52" s="6"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -4427,22 +4428,22 @@
       <c r="AC52" s="3"/>
     </row>
     <row r="53" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="156" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" s="157"/>
+      <c r="C53" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="50" t="s">
+      <c r="D53" s="104"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="146" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="73"/>
+      <c r="G53" s="147"/>
+      <c r="H53" s="147"/>
+      <c r="I53" s="147"/>
+      <c r="J53" s="148"/>
       <c r="K53" s="6"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -4464,24 +4465,24 @@
       <c r="AC53" s="3"/>
     </row>
     <row r="54" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="157"/>
+      <c r="C54" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="18" t="s">
-        <v>178</v>
       </c>
       <c r="D54" s="18">
         <v>1083875201</v>
       </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="71" t="s">
-        <v>179</v>
+      <c r="F54" s="146" t="s">
+        <v>178</v>
       </c>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="73"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="148"/>
       <c r="K54" s="6"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4503,24 +4504,24 @@
       <c r="AC54" s="3"/>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A55" s="74" t="s">
+      <c r="A55" s="159" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" s="160"/>
+      <c r="C55" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="104"/>
+      <c r="E55" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B55" s="75"/>
-      <c r="C55" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="6" t="s">
+      <c r="F55" s="146" t="s">
         <v>181</v>
       </c>
-      <c r="F55" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="73"/>
+      <c r="G55" s="147"/>
+      <c r="H55" s="147"/>
+      <c r="I55" s="147"/>
+      <c r="J55" s="148"/>
       <c r="K55" s="6"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -4542,24 +4543,24 @@
       <c r="AC55" s="3"/>
     </row>
     <row r="56" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="156" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" s="157"/>
+      <c r="C56" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="104"/>
+      <c r="E56" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="73"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="147"/>
+      <c r="I56" s="147"/>
+      <c r="J56" s="148"/>
       <c r="K56" s="6"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -4581,24 +4582,24 @@
       <c r="AC56" s="3"/>
     </row>
     <row r="57" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="156" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="157"/>
+      <c r="C57" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="104"/>
+      <c r="E57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="146" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="73"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="147"/>
+      <c r="I57" s="147"/>
+      <c r="J57" s="148"/>
       <c r="K57" s="6"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -4620,24 +4621,24 @@
       <c r="AC57" s="3"/>
     </row>
     <row r="58" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="157"/>
+      <c r="C58" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="49"/>
-      <c r="C58" s="50" t="s">
+      <c r="D58" s="104"/>
+      <c r="E58" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="6" t="s">
+      <c r="F58" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
-      <c r="J58" s="73"/>
+      <c r="G58" s="147"/>
+      <c r="H58" s="147"/>
+      <c r="I58" s="147"/>
+      <c r="J58" s="148"/>
       <c r="K58" s="6"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -4659,16 +4660,16 @@
       <c r="AC58" s="3"/>
     </row>
     <row r="59" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A59" s="48" t="s">
-        <v>191</v>
+      <c r="A59" s="156" t="s">
+        <v>190</v>
       </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50" t="s">
-        <v>188</v>
+      <c r="B59" s="157"/>
+      <c r="C59" s="49" t="s">
+        <v>187</v>
       </c>
-      <c r="D59" s="51"/>
+      <c r="D59" s="104"/>
       <c r="E59" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
@@ -4696,24 +4697,24 @@
       <c r="AC59" s="3"/>
     </row>
     <row r="60" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="161" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="162"/>
+      <c r="C60" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="133"/>
+      <c r="E60" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B60" s="53"/>
-      <c r="C60" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="58"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="165"/>
       <c r="K60" s="6"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -4738,7 +4739,7 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="6"/>
@@ -4799,23 +4800,23 @@
       <c r="AC62" s="3"/>
     </row>
     <row r="63" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="48"/>
+      <c r="C63" s="166" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="140"/>
+      <c r="E63" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B63" s="60"/>
-      <c r="C63" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="62"/>
-      <c r="E63" s="19" t="s">
+      <c r="F63" s="167" t="s">
         <v>197</v>
       </c>
-      <c r="F63" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+      <c r="G63" s="168"/>
+      <c r="H63" s="168"/>
+      <c r="I63" s="169"/>
       <c r="J63" s="3"/>
       <c r="K63" s="6"/>
       <c r="L63" s="3"/>
@@ -4838,21 +4839,21 @@
       <c r="AC63" s="3"/>
     </row>
     <row r="64" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A64" s="69" t="s">
-        <v>199</v>
+      <c r="A64" s="173" t="s">
+        <v>198</v>
       </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="50" t="s">
+      <c r="B64" s="174"/>
+      <c r="C64" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="51"/>
+      <c r="D64" s="104"/>
       <c r="E64" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
-      <c r="F64" s="66"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="68"/>
+      <c r="F64" s="170"/>
+      <c r="G64" s="171"/>
+      <c r="H64" s="171"/>
+      <c r="I64" s="172"/>
       <c r="J64" s="3"/>
       <c r="K64" s="6"/>
       <c r="L64" s="3"/>
@@ -4875,15 +4876,15 @@
       <c r="AC64" s="3"/>
     </row>
     <row r="65" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A65" s="39"/>
-      <c r="B65" s="40"/>
+      <c r="A65" s="73"/>
+      <c r="B65" s="75"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="47"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="142"/>
+      <c r="I65" s="143"/>
       <c r="J65" s="3"/>
       <c r="K65" s="6"/>
       <c r="L65" s="3"/>
@@ -4906,15 +4907,15 @@
       <c r="AC65" s="3"/>
     </row>
     <row r="66" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A66" s="39"/>
-      <c r="B66" s="40"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="75"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="40"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="75"/>
       <c r="J66" s="3"/>
       <c r="K66" s="6"/>
       <c r="L66" s="3"/>
@@ -4937,15 +4938,15 @@
       <c r="AC66" s="3"/>
     </row>
     <row r="67" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A67" s="39"/>
-      <c r="B67" s="40"/>
+      <c r="A67" s="73"/>
+      <c r="B67" s="75"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="40"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="75"/>
       <c r="J67" s="3"/>
       <c r="K67" s="6"/>
       <c r="L67" s="3"/>
@@ -4968,15 +4969,15 @@
       <c r="AC67" s="3"/>
     </row>
     <row r="68" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A68" s="39"/>
-      <c r="B68" s="40"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="75"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="40"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="75"/>
       <c r="J68" s="3"/>
       <c r="K68" s="6"/>
       <c r="L68" s="3"/>
@@ -4999,15 +5000,15 @@
       <c r="AC68" s="3"/>
     </row>
     <row r="69" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A69" s="39"/>
-      <c r="B69" s="40"/>
+      <c r="A69" s="73"/>
+      <c r="B69" s="75"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="40"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="75"/>
       <c r="J69" s="3"/>
       <c r="K69" s="6"/>
       <c r="L69" s="3"/>
@@ -5030,15 +5031,15 @@
       <c r="AC69" s="3"/>
     </row>
     <row r="70" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A70" s="42"/>
-      <c r="B70" s="43"/>
+      <c r="A70" s="175"/>
+      <c r="B70" s="176"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="43"/>
+      <c r="F70" s="175"/>
+      <c r="G70" s="177"/>
+      <c r="H70" s="177"/>
+      <c r="I70" s="176"/>
       <c r="J70" s="3"/>
       <c r="K70" s="6"/>
       <c r="L70" s="3"/>
@@ -33799,59 +33800,173 @@
     </row>
   </sheetData>
   <mergeCells count="244">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:G11"/>
@@ -33876,173 +33991,59 @@
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>

--- a/웹호스팅 파일.xlsx
+++ b/웹호스팅 파일.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dr_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE34057-4287-4E9D-854B-58042CB4DC39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172E088B-AB22-4960-82B0-7CBC32714E95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{A69C2BA6-A0CA-4657-AB14-5E18B21B8DA4}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{A69C2BA6-A0CA-4657-AB14-5E18B21B8DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="209">
   <si>
     <r>
       <t xml:space="preserve">자사서비스 개발 및 운영 관련 링크 </t>
@@ -704,6 +704,17 @@
   </si>
   <si>
     <t>ekrxj909</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ekrxj902gha! </t>
+  </si>
+  <si>
+    <t>dochomecm</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ekrxj902gha! </t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1456,7 +1467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1534,9 +1545,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1756,15 +1764,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1990,6 +1989,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2308,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ED1134-495E-448E-9885-FE3CBE3AFF0A}">
   <dimension ref="A1:AC997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2328,17 +2357,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
@@ -2361,43 +2390,43 @@
       <c r="AC1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="44" t="s">
+      <c r="P2" s="44"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="44" t="s">
+      <c r="S2" s="44"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="45"/>
-      <c r="W2" s="48"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="47"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -2406,45 +2435,45 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54" t="s">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54" t="s">
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="51" t="s">
+      <c r="P3" s="51"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="52"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="49" t="s">
+      <c r="S3" s="51"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="V3" s="56"/>
-      <c r="W3" s="50"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="49"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -2453,55 +2482,55 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="60"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="62"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="62"/>
+      <c r="P4" s="61"/>
       <c r="Q4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="64"/>
+      <c r="S4" s="63"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="V4" s="66"/>
-      <c r="W4" s="38" t="s">
+      <c r="V4" s="65"/>
+      <c r="W4" s="37" t="s">
         <v>203</v>
       </c>
       <c r="X4" s="3"/>
@@ -2512,58 +2541,58 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="82"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="82"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="83" t="s">
+      <c r="L5" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="82"/>
+      <c r="M5" s="81"/>
       <c r="N5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="83" t="s">
+      <c r="O5" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="82"/>
+      <c r="P5" s="81"/>
       <c r="Q5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="67" t="s">
+      <c r="U5" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="68"/>
-      <c r="W5" s="36" t="s">
+      <c r="V5" s="67"/>
+      <c r="W5" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="X5" s="37"/>
+      <c r="X5" s="36"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -2571,32 +2600,32 @@
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A6" s="79"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="69" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="75"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="74"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -2608,7 +2637,7 @@
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A7" s="79"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
@@ -2624,18 +2653,18 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="76" t="s">
+      <c r="O7" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="77"/>
+      <c r="P7" s="76"/>
       <c r="Q7" s="15" t="s">
         <v>30</v>
       </c>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="15"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="68"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="67"/>
       <c r="W7" s="7"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -2645,7 +2674,7 @@
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A8" s="80"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2661,18 +2690,18 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="76" t="s">
+      <c r="O8" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="77"/>
+      <c r="P8" s="76"/>
       <c r="Q8" s="15" t="s">
         <v>30</v>
       </c>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="68"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="67"/>
       <c r="W8" s="7"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -2682,45 +2711,45 @@
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29" ht="66" customHeight="1" thickBot="1">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="83" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="86" t="s">
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="86" t="s">
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="87"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="86" t="s">
+      <c r="J9" s="86"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="87"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="89" t="s">
+      <c r="M9" s="86"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="92" t="s">
+      <c r="P9" s="89"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="87"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="96"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="95"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -2729,40 +2758,40 @@
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A10" s="85"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="D10" s="97"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="17">
         <v>123456</v>
       </c>
-      <c r="F10" s="98" t="s">
+      <c r="F10" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="97"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="97"/>
+      <c r="J10" s="96"/>
       <c r="K10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="98" t="s">
+      <c r="L10" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="97"/>
+      <c r="M10" s="96"/>
       <c r="N10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="98"/>
-      <c r="P10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="96"/>
       <c r="Q10" s="17">
         <v>123456</v>
       </c>
@@ -2775,8 +2804,8 @@
       <c r="T10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="U10" s="94"/>
-      <c r="V10" s="99"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="7"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -2786,54 +2815,54 @@
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29" ht="24.75" thickBot="1">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="178" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="103" t="s">
-        <v>49</v>
+      <c r="C11" s="99" t="s">
+        <v>207</v>
       </c>
-      <c r="D11" s="104"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="19" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="104"/>
+      <c r="G11" s="100"/>
       <c r="H11" s="19" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
-      <c r="I11" s="105" t="s">
+      <c r="I11" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="106"/>
+      <c r="J11" s="102"/>
       <c r="K11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="104"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="100"/>
       <c r="N11" s="19"/>
-      <c r="O11" s="67" t="s">
+      <c r="O11" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="68"/>
+      <c r="P11" s="67"/>
       <c r="Q11" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="R11" s="49" t="s">
+      <c r="R11" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="S11" s="104"/>
+      <c r="S11" s="100"/>
       <c r="T11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="67" t="s">
+      <c r="U11" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="V11" s="68"/>
+      <c r="V11" s="67"/>
       <c r="W11" s="22" t="s">
         <v>30</v>
       </c>
@@ -2845,30 +2874,30 @@
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A12" s="101"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108"/>
+      <c r="A12" s="180"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="108"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="104"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="108"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="104"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="108"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="104"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="108"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="104"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="109" t="s">
+      <c r="R12" s="105"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="V12" s="108"/>
+      <c r="V12" s="104"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -2878,39 +2907,39 @@
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="1:29" ht="33" customHeight="1" thickBot="1">
-      <c r="A13" s="101"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="180"/>
+      <c r="B13" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="103" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="103" t="s">
+      <c r="G13" s="55"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="104"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="100"/>
       <c r="N13" s="19"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="112" t="s">
+      <c r="O13" s="93"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="V13" s="113"/>
-      <c r="W13" s="114"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="110"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
@@ -2919,27 +2948,27 @@
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A14" s="101"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="108"/>
+      <c r="A14" s="180"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="108"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="104"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="109" t="s">
+      <c r="L14" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="108"/>
+      <c r="M14" s="104"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="108"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="104"/>
       <c r="Q14" s="23"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="108"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="104"/>
       <c r="T14" s="11"/>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
@@ -2952,35 +2981,35 @@
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A15" s="102"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="182"/>
+      <c r="B15" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="103" t="s">
+      <c r="D15" s="55"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="104"/>
+      <c r="G15" s="100"/>
       <c r="H15" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="104"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="100"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="49" t="s">
+      <c r="L15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="104"/>
+      <c r="M15" s="100"/>
       <c r="N15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="94"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="96"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="95"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="25"/>
@@ -2995,35 +3024,35 @@
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="124" t="s">
+      <c r="D16" s="117"/>
+      <c r="E16" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="109"/>
-      <c r="G16" s="108"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="104"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="108"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="104"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="108"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="104"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="108"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="104"/>
       <c r="Q16" s="11"/>
-      <c r="R16" s="118" t="s">
+      <c r="R16" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="S16" s="119"/>
+      <c r="S16" s="115"/>
       <c r="T16" s="11" t="s">
         <v>73</v>
       </c>
@@ -3038,24 +3067,24 @@
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A17" s="101"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="180"/>
+      <c r="B17" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="108"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="108"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="104"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="108"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="104"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="119"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="115"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
@@ -3071,26 +3100,26 @@
       <c r="AC17" s="3"/>
     </row>
     <row r="18" spans="1:29" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="182"/>
+      <c r="B18" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="108"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="104"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="108"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="104"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="108"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="104"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="108"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="104"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
@@ -3106,8 +3135,8 @@
       <c r="AC18" s="3"/>
     </row>
     <row r="19" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="183"/>
+      <c r="B19" s="179"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="6"/>
@@ -3137,25 +3166,25 @@
       <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="1:29" ht="39" thickBot="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="49" t="s">
+      <c r="B20" s="175"/>
+      <c r="C20" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="104"/>
+      <c r="D20" s="100"/>
       <c r="E20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="104"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="100"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="104"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="100"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="104"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="100"/>
       <c r="N20" s="6"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -3184,33 +3213,33 @@
       <c r="AC20" s="3"/>
     </row>
     <row r="21" spans="1:29" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="109" t="s">
+      <c r="B21" s="175"/>
+      <c r="C21" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="108"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="109"/>
-      <c r="G21" s="108"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="104"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="108"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="104"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="108"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="104"/>
       <c r="N21" s="11"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="23"/>
-      <c r="R21" s="27" t="s">
+      <c r="R21" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="S21" s="27" t="s">
+      <c r="S21" s="26" t="s">
         <v>87</v>
       </c>
       <c r="T21" s="23"/>
@@ -3225,27 +3254,27 @@
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="49" t="s">
+      <c r="B22" s="175"/>
+      <c r="C22" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="104"/>
+      <c r="D22" s="100"/>
       <c r="E22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="104"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="100"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="104"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="100"/>
       <c r="K22" s="19"/>
-      <c r="L22" s="49" t="s">
+      <c r="L22" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="104"/>
+      <c r="M22" s="100"/>
       <c r="N22" s="6" t="s">
         <v>73</v>
       </c>
@@ -3266,28 +3295,28 @@
       <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="1:29" ht="39" thickBot="1">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="127"/>
-      <c r="C23" s="109" t="s">
+      <c r="B23" s="175"/>
+      <c r="C23" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="108"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="109"/>
-      <c r="G23" s="108"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="104"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="108"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="104"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="108"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="104"/>
       <c r="N23" s="11"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="108"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="104"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="10" t="s">
         <v>93</v>
@@ -3315,14 +3344,14 @@
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="49" t="s">
+      <c r="B24" s="175"/>
+      <c r="C24" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="104"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="6" t="s">
         <v>99</v>
       </c>
@@ -3342,7 +3371,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="6"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="28" t="s">
+      <c r="V24" s="27" t="s">
         <v>100</v>
       </c>
       <c r="W24" s="3"/>
@@ -3354,14 +3383,14 @@
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="49" t="s">
+      <c r="B25" s="175"/>
+      <c r="C25" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="104"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="6" t="s">
         <v>99</v>
       </c>
@@ -3381,7 +3410,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="6"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="28" t="s">
+      <c r="V25" s="27" t="s">
         <v>103</v>
       </c>
       <c r="W25" s="3"/>
@@ -3393,15 +3422,15 @@
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="174" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="49" t="s">
+      <c r="B26" s="175"/>
+      <c r="C26" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="176"/>
+      <c r="E26" s="177" t="s">
         <v>106</v>
       </c>
       <c r="F26" s="18"/>
@@ -3413,14 +3442,14 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="64"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="63"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="6"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="28" t="s">
+      <c r="V26" s="27" t="s">
         <v>107</v>
       </c>
       <c r="W26" s="3"/>
@@ -3432,7 +3461,7 @@
       <c r="AC26" s="3"/>
     </row>
     <row r="27" spans="1:29" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -3453,7 +3482,7 @@
       <c r="S27" s="10"/>
       <c r="T27" s="11"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="28" t="s">
+      <c r="V27" s="27" t="s">
         <v>108</v>
       </c>
       <c r="W27" s="3"/>
@@ -3465,38 +3494,38 @@
       <c r="AC27" s="3"/>
     </row>
     <row r="28" spans="1:29" ht="82.5" customHeight="1" thickBot="1">
-      <c r="A28" s="128" t="s">
+      <c r="A28" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="129"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="130" t="s">
+      <c r="D28" s="126" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="131"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
-      <c r="H28" s="132" t="s">
+      <c r="H28" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="133"/>
-      <c r="J28" s="30" t="s">
+      <c r="I28" s="129"/>
+      <c r="J28" s="29" t="s">
         <v>113</v>
       </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="133"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="129"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
       <c r="T28" s="6"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="28" t="s">
+      <c r="V28" s="27" t="s">
         <v>114</v>
       </c>
       <c r="W28" s="3"/>
@@ -3539,17 +3568,17 @@
       <c r="AC29" s="3"/>
     </row>
     <row r="30" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
       <c r="L30" s="24"/>
@@ -3572,30 +3601,30 @@
       <c r="AC30" s="3"/>
     </row>
     <row r="31" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="139" t="s">
+      <c r="C31" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="140"/>
+      <c r="D31" s="136"/>
       <c r="E31" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="141"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="143"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="139"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="144" t="s">
+      <c r="L31" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="M31" s="145"/>
-      <c r="N31" s="33"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="32"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -3613,28 +3642,28 @@
       <c r="AC31" s="3"/>
     </row>
     <row r="32" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A32" s="138"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="104"/>
+      <c r="D32" s="100"/>
       <c r="E32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="75"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="74"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="144" t="s">
+      <c r="L32" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="M32" s="145"/>
-      <c r="N32" s="33" t="s">
+      <c r="M32" s="141"/>
+      <c r="N32" s="32" t="s">
         <v>120</v>
       </c>
       <c r="O32" s="3"/>
@@ -3654,30 +3683,30 @@
       <c r="AC32" s="3"/>
     </row>
     <row r="33" spans="1:29" ht="33" customHeight="1" thickBot="1">
-      <c r="A33" s="149" t="s">
+      <c r="A33" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="150"/>
-      <c r="C33" s="49">
+      <c r="B33" s="146"/>
+      <c r="C33" s="48">
         <v>11111</v>
       </c>
-      <c r="D33" s="104"/>
+      <c r="D33" s="100"/>
       <c r="E33" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="73" t="s">
+      <c r="F33" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="75"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="134" t="s">
+      <c r="L33" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="M33" s="135"/>
-      <c r="N33" s="136"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="132"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -3695,22 +3724,22 @@
       <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="127"/>
-      <c r="C34" s="49" t="s">
+      <c r="B34" s="123"/>
+      <c r="C34" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="104"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="75"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="74"/>
       <c r="K34" s="6"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
@@ -3732,24 +3761,24 @@
       <c r="AC34" s="3"/>
     </row>
     <row r="35" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A35" s="118" t="s">
+      <c r="A35" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="49" t="s">
+      <c r="B35" s="123"/>
+      <c r="C35" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="104"/>
+      <c r="D35" s="100"/>
       <c r="E35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="146" t="s">
+      <c r="F35" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="148"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="144"/>
       <c r="K35" s="6"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
@@ -3771,22 +3800,22 @@
       <c r="AC35" s="3"/>
     </row>
     <row r="36" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A36" s="118" t="s">
+      <c r="A36" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="49" t="s">
+      <c r="B36" s="123"/>
+      <c r="C36" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="104"/>
+      <c r="D36" s="100"/>
       <c r="E36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="75"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="74"/>
       <c r="K36" s="6"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -3808,24 +3837,24 @@
       <c r="AC36" s="3"/>
     </row>
     <row r="37" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A37" s="118" t="s">
+      <c r="A37" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="127"/>
-      <c r="C37" s="49" t="s">
+      <c r="B37" s="123"/>
+      <c r="C37" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="104"/>
+      <c r="D37" s="100"/>
       <c r="E37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="146" t="s">
+      <c r="F37" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="148"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="144"/>
       <c r="K37" s="6"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -3847,24 +3876,24 @@
       <c r="AC37" s="3"/>
     </row>
     <row r="38" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A38" s="154" t="s">
+      <c r="A38" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="155"/>
-      <c r="C38" s="49" t="s">
+      <c r="B38" s="151"/>
+      <c r="C38" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="104"/>
+      <c r="D38" s="100"/>
       <c r="E38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="146" t="s">
+      <c r="F38" s="142" t="s">
         <v>133</v>
       </c>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="148"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="144"/>
       <c r="K38" s="6"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -3886,20 +3915,20 @@
       <c r="AC38" s="3"/>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A39" s="149"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="49" t="s">
+      <c r="A39" s="145"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="104"/>
+      <c r="D39" s="100"/>
       <c r="E39" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="75"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="74"/>
       <c r="K39" s="6"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -3921,24 +3950,24 @@
       <c r="AC39" s="3"/>
     </row>
     <row r="40" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A40" s="118" t="s">
+      <c r="A40" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="127"/>
-      <c r="C40" s="49" t="s">
+      <c r="B40" s="123"/>
+      <c r="C40" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="104"/>
+      <c r="D40" s="100"/>
       <c r="E40" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="151" t="s">
+      <c r="F40" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="153"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="149"/>
       <c r="K40" s="6"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -3960,24 +3989,24 @@
       <c r="AC40" s="3"/>
     </row>
     <row r="41" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A41" s="118" t="s">
+      <c r="A41" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="127"/>
-      <c r="C41" s="49" t="s">
+      <c r="B41" s="123"/>
+      <c r="C41" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="104"/>
+      <c r="D41" s="100"/>
       <c r="E41" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F41" s="146" t="s">
+      <c r="F41" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="148"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="144"/>
       <c r="K41" s="6"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -3999,24 +4028,24 @@
       <c r="AC41" s="3"/>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A42" s="118" t="s">
+      <c r="A42" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="127"/>
-      <c r="C42" s="49" t="s">
+      <c r="B42" s="123"/>
+      <c r="C42" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="34" t="s">
+      <c r="D42" s="100"/>
+      <c r="E42" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="146" t="s">
+      <c r="F42" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="148"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="144"/>
       <c r="K42" s="6"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -4038,24 +4067,24 @@
       <c r="AC42" s="3"/>
     </row>
     <row r="43" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A43" s="118" t="s">
+      <c r="A43" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="127"/>
-      <c r="C43" s="49" t="s">
+      <c r="B43" s="123"/>
+      <c r="C43" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="104"/>
+      <c r="D43" s="100"/>
       <c r="E43" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F43" s="146" t="s">
+      <c r="F43" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="148"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="144"/>
       <c r="K43" s="6"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -4077,24 +4106,24 @@
       <c r="AC43" s="3"/>
     </row>
     <row r="44" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="49" t="s">
+      <c r="B44" s="123"/>
+      <c r="C44" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="104"/>
+      <c r="D44" s="100"/>
       <c r="E44" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F44" s="151" t="s">
+      <c r="F44" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="153"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="149"/>
       <c r="K44" s="6"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -4116,24 +4145,24 @@
       <c r="AC44" s="3"/>
     </row>
     <row r="45" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="49" t="s">
+      <c r="B45" s="123"/>
+      <c r="C45" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="104"/>
+      <c r="D45" s="100"/>
       <c r="E45" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F45" s="151" t="s">
+      <c r="F45" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="G45" s="152"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="152"/>
-      <c r="J45" s="153"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="149"/>
       <c r="K45" s="6"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -4155,24 +4184,24 @@
       <c r="AC45" s="3"/>
     </row>
     <row r="46" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A46" s="118" t="s">
+      <c r="A46" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="127"/>
-      <c r="C46" s="49" t="s">
+      <c r="B46" s="123"/>
+      <c r="C46" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="104"/>
+      <c r="D46" s="100"/>
       <c r="E46" s="6">
         <v>7654321</v>
       </c>
-      <c r="F46" s="146" t="s">
+      <c r="F46" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="148"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="144"/>
       <c r="K46" s="6"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -4194,24 +4223,24 @@
       <c r="AC46" s="3"/>
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A47" s="156" t="s">
+      <c r="A47" s="152" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="157"/>
-      <c r="C47" s="49" t="s">
+      <c r="B47" s="153"/>
+      <c r="C47" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="104"/>
+      <c r="D47" s="100"/>
       <c r="E47" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F47" s="146" t="s">
+      <c r="F47" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="148"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="143"/>
+      <c r="J47" s="144"/>
       <c r="K47" s="6"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -4233,24 +4262,24 @@
       <c r="AC47" s="3"/>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A48" s="156" t="s">
+      <c r="A48" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="157"/>
-      <c r="C48" s="49" t="s">
+      <c r="B48" s="153"/>
+      <c r="C48" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="104"/>
+      <c r="D48" s="100"/>
       <c r="E48" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="151" t="s">
+      <c r="F48" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="153"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="149"/>
       <c r="K48" s="6"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -4272,24 +4301,24 @@
       <c r="AC48" s="3"/>
     </row>
     <row r="49" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A49" s="156" t="s">
+      <c r="A49" s="152" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="157"/>
-      <c r="C49" s="49">
+      <c r="B49" s="153"/>
+      <c r="C49" s="48">
         <v>431806838217787</v>
       </c>
-      <c r="D49" s="104"/>
+      <c r="D49" s="100"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="G49" s="104"/>
-      <c r="H49" s="158" t="s">
+      <c r="G49" s="100"/>
+      <c r="H49" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="I49" s="74"/>
-      <c r="J49" s="75"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="74"/>
       <c r="K49" s="6"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -4311,24 +4340,24 @@
       <c r="AC49" s="3"/>
     </row>
     <row r="50" spans="1:29" ht="33" customHeight="1" thickBot="1">
-      <c r="A50" s="156" t="s">
+      <c r="A50" s="152" t="s">
         <v>165</v>
       </c>
-      <c r="B50" s="157"/>
-      <c r="C50" s="49" t="s">
+      <c r="B50" s="153"/>
+      <c r="C50" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="104"/>
+      <c r="D50" s="100"/>
       <c r="E50" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="151" t="s">
+      <c r="F50" s="147" t="s">
         <v>166</v>
       </c>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="153"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="149"/>
       <c r="K50" s="6"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -4350,24 +4379,24 @@
       <c r="AC50" s="3"/>
     </row>
     <row r="51" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A51" s="156" t="s">
+      <c r="A51" s="152" t="s">
         <v>167</v>
       </c>
-      <c r="B51" s="157"/>
-      <c r="C51" s="49" t="s">
+      <c r="B51" s="153"/>
+      <c r="C51" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="104"/>
+      <c r="D51" s="100"/>
       <c r="E51" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F51" s="146" t="s">
+      <c r="F51" s="142" t="s">
         <v>169</v>
       </c>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="148"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="143"/>
+      <c r="I51" s="143"/>
+      <c r="J51" s="144"/>
       <c r="K51" s="6"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -4389,24 +4418,24 @@
       <c r="AC51" s="3"/>
     </row>
     <row r="52" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A52" s="156" t="s">
+      <c r="A52" s="152" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="157"/>
-      <c r="C52" s="49" t="s">
+      <c r="B52" s="153"/>
+      <c r="C52" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="104"/>
+      <c r="D52" s="100"/>
       <c r="E52" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="146" t="s">
+      <c r="F52" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="148"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="143"/>
+      <c r="J52" s="144"/>
       <c r="K52" s="6"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -4428,22 +4457,22 @@
       <c r="AC52" s="3"/>
     </row>
     <row r="53" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A53" s="156" t="s">
+      <c r="A53" s="152" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="157"/>
-      <c r="C53" s="49" t="s">
+      <c r="B53" s="153"/>
+      <c r="C53" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="D53" s="104"/>
+      <c r="D53" s="100"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="146" t="s">
+      <c r="F53" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="G53" s="147"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="147"/>
-      <c r="J53" s="148"/>
+      <c r="G53" s="143"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="143"/>
+      <c r="J53" s="144"/>
       <c r="K53" s="6"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -4465,10 +4494,10 @@
       <c r="AC53" s="3"/>
     </row>
     <row r="54" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="152" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="157"/>
+      <c r="B54" s="153"/>
       <c r="C54" s="18" t="s">
         <v>177</v>
       </c>
@@ -4476,13 +4505,13 @@
         <v>1083875201</v>
       </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="146" t="s">
+      <c r="F54" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="G54" s="147"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="148"/>
+      <c r="G54" s="143"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="143"/>
+      <c r="J54" s="144"/>
       <c r="K54" s="6"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4504,24 +4533,24 @@
       <c r="AC54" s="3"/>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1" thickBot="1">
-      <c r="A55" s="159" t="s">
+      <c r="A55" s="155" t="s">
         <v>179</v>
       </c>
-      <c r="B55" s="160"/>
-      <c r="C55" s="49" t="s">
+      <c r="B55" s="156"/>
+      <c r="C55" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D55" s="104"/>
+      <c r="D55" s="100"/>
       <c r="E55" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F55" s="146" t="s">
+      <c r="F55" s="142" t="s">
         <v>181</v>
       </c>
-      <c r="G55" s="147"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="147"/>
-      <c r="J55" s="148"/>
+      <c r="G55" s="143"/>
+      <c r="H55" s="143"/>
+      <c r="I55" s="143"/>
+      <c r="J55" s="144"/>
       <c r="K55" s="6"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -4543,24 +4572,24 @@
       <c r="AC55" s="3"/>
     </row>
     <row r="56" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A56" s="156" t="s">
+      <c r="A56" s="152" t="s">
         <v>182</v>
       </c>
-      <c r="B56" s="157"/>
-      <c r="C56" s="49" t="s">
+      <c r="B56" s="153"/>
+      <c r="C56" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="104"/>
+      <c r="D56" s="100"/>
       <c r="E56" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="146" t="s">
+      <c r="F56" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="G56" s="147"/>
-      <c r="H56" s="147"/>
-      <c r="I56" s="147"/>
-      <c r="J56" s="148"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="144"/>
       <c r="K56" s="6"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -4582,24 +4611,24 @@
       <c r="AC56" s="3"/>
     </row>
     <row r="57" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A57" s="156" t="s">
+      <c r="A57" s="152" t="s">
         <v>184</v>
       </c>
-      <c r="B57" s="157"/>
-      <c r="C57" s="49" t="s">
+      <c r="B57" s="153"/>
+      <c r="C57" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="104"/>
+      <c r="D57" s="100"/>
       <c r="E57" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="146" t="s">
+      <c r="F57" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="G57" s="147"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="147"/>
-      <c r="J57" s="148"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="143"/>
+      <c r="J57" s="144"/>
       <c r="K57" s="6"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -4621,24 +4650,24 @@
       <c r="AC57" s="3"/>
     </row>
     <row r="58" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A58" s="156" t="s">
+      <c r="A58" s="152" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="157"/>
-      <c r="C58" s="49" t="s">
+      <c r="B58" s="153"/>
+      <c r="C58" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="104"/>
+      <c r="D58" s="100"/>
       <c r="E58" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F58" s="146" t="s">
+      <c r="F58" s="142" t="s">
         <v>189</v>
       </c>
-      <c r="G58" s="147"/>
-      <c r="H58" s="147"/>
-      <c r="I58" s="147"/>
-      <c r="J58" s="148"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="144"/>
       <c r="K58" s="6"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -4660,22 +4689,22 @@
       <c r="AC58" s="3"/>
     </row>
     <row r="59" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A59" s="156" t="s">
+      <c r="A59" s="152" t="s">
         <v>190</v>
       </c>
-      <c r="B59" s="157"/>
-      <c r="C59" s="49" t="s">
+      <c r="B59" s="153"/>
+      <c r="C59" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="D59" s="104"/>
+      <c r="D59" s="100"/>
       <c r="E59" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
       <c r="K59" s="6"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -4697,24 +4726,24 @@
       <c r="AC59" s="3"/>
     </row>
     <row r="60" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A60" s="161" t="s">
+      <c r="A60" s="157" t="s">
         <v>191</v>
       </c>
-      <c r="B60" s="162"/>
-      <c r="C60" s="128" t="s">
+      <c r="B60" s="158"/>
+      <c r="C60" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="133"/>
+      <c r="D60" s="129"/>
       <c r="E60" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F60" s="163" t="s">
+      <c r="F60" s="159" t="s">
         <v>193</v>
       </c>
-      <c r="G60" s="164"/>
-      <c r="H60" s="164"/>
-      <c r="I60" s="164"/>
-      <c r="J60" s="165"/>
+      <c r="G60" s="160"/>
+      <c r="H60" s="160"/>
+      <c r="I60" s="160"/>
+      <c r="J60" s="161"/>
       <c r="K60" s="6"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -4800,23 +4829,23 @@
       <c r="AC62" s="3"/>
     </row>
     <row r="63" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="166" t="s">
+      <c r="B63" s="47"/>
+      <c r="C63" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="140"/>
+      <c r="D63" s="136"/>
       <c r="E63" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F63" s="167" t="s">
+      <c r="F63" s="163" t="s">
         <v>197</v>
       </c>
-      <c r="G63" s="168"/>
-      <c r="H63" s="168"/>
-      <c r="I63" s="169"/>
+      <c r="G63" s="164"/>
+      <c r="H63" s="164"/>
+      <c r="I63" s="165"/>
       <c r="J63" s="3"/>
       <c r="K63" s="6"/>
       <c r="L63" s="3"/>
@@ -4839,21 +4868,21 @@
       <c r="AC63" s="3"/>
     </row>
     <row r="64" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A64" s="173" t="s">
+      <c r="A64" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="B64" s="174"/>
-      <c r="C64" s="49" t="s">
+      <c r="B64" s="170"/>
+      <c r="C64" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="104"/>
+      <c r="D64" s="100"/>
       <c r="E64" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F64" s="170"/>
-      <c r="G64" s="171"/>
-      <c r="H64" s="171"/>
-      <c r="I64" s="172"/>
+      <c r="F64" s="166"/>
+      <c r="G64" s="167"/>
+      <c r="H64" s="167"/>
+      <c r="I64" s="168"/>
       <c r="J64" s="3"/>
       <c r="K64" s="6"/>
       <c r="L64" s="3"/>
@@ -4876,15 +4905,15 @@
       <c r="AC64" s="3"/>
     </row>
     <row r="65" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A65" s="73"/>
-      <c r="B65" s="75"/>
+      <c r="A65" s="72"/>
+      <c r="B65" s="74"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="141"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="142"/>
-      <c r="I65" s="143"/>
+      <c r="F65" s="137"/>
+      <c r="G65" s="138"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="139"/>
       <c r="J65" s="3"/>
       <c r="K65" s="6"/>
       <c r="L65" s="3"/>
@@ -4907,15 +4936,15 @@
       <c r="AC65" s="3"/>
     </row>
     <row r="66" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A66" s="73"/>
-      <c r="B66" s="75"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="74"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="75"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="74"/>
       <c r="J66" s="3"/>
       <c r="K66" s="6"/>
       <c r="L66" s="3"/>
@@ -4938,15 +4967,15 @@
       <c r="AC66" s="3"/>
     </row>
     <row r="67" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A67" s="73"/>
-      <c r="B67" s="75"/>
+      <c r="A67" s="72"/>
+      <c r="B67" s="74"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="75"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="74"/>
       <c r="J67" s="3"/>
       <c r="K67" s="6"/>
       <c r="L67" s="3"/>
@@ -4969,15 +4998,15 @@
       <c r="AC67" s="3"/>
     </row>
     <row r="68" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A68" s="73"/>
-      <c r="B68" s="75"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="74"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="75"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="74"/>
       <c r="J68" s="3"/>
       <c r="K68" s="6"/>
       <c r="L68" s="3"/>
@@ -5000,15 +5029,15 @@
       <c r="AC68" s="3"/>
     </row>
     <row r="69" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A69" s="73"/>
-      <c r="B69" s="75"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="74"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="75"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="74"/>
       <c r="J69" s="3"/>
       <c r="K69" s="6"/>
       <c r="L69" s="3"/>
@@ -5031,15 +5060,15 @@
       <c r="AC69" s="3"/>
     </row>
     <row r="70" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A70" s="175"/>
-      <c r="B70" s="176"/>
+      <c r="A70" s="171"/>
+      <c r="B70" s="172"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="175"/>
-      <c r="G70" s="177"/>
-      <c r="H70" s="177"/>
-      <c r="I70" s="176"/>
+      <c r="F70" s="171"/>
+      <c r="G70" s="173"/>
+      <c r="H70" s="173"/>
+      <c r="I70" s="172"/>
       <c r="J70" s="3"/>
       <c r="K70" s="6"/>
       <c r="L70" s="3"/>
